--- a/Modelo1_db.xlsx
+++ b/Modelo1_db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="T(k)" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Y,M(j)" sheetId="5" r:id="rId5"/>
     <sheet name="B(k,l,r)" sheetId="6" r:id="rId6"/>
     <sheet name="E(p,k)" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
   <si>
     <t>k</t>
   </si>
@@ -116,6 +117,24 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Internado</t>
+  </si>
+  <si>
+    <t>Cuarto</t>
+  </si>
+  <si>
+    <t>Supervision</t>
+  </si>
+  <si>
+    <t>Correccion</t>
   </si>
 </sst>
 </file>
@@ -320,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -340,6 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,7 +664,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +731,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,119 +855,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5">
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="5">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -956,8 +932,9 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -967,7 +944,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -977,7 +954,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -997,7 +974,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1133,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,15 +1211,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1252,302 +1229,39 @@
       <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1559,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,4 +1394,411 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Modelo1_db.xlsx
+++ b/Modelo1_db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="T(k)" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="Y,M(j)" sheetId="5" r:id="rId5"/>
     <sheet name="B(k,l,r)" sheetId="6" r:id="rId6"/>
     <sheet name="E(p,k)" sheetId="7" r:id="rId7"/>
-    <sheet name="Hoja1" sheetId="8" r:id="rId8"/>
+    <sheet name="Especialidades" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>k</t>
   </si>
@@ -71,24 +71,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>supervision</t>
-  </si>
-  <si>
-    <t>correccion</t>
-  </si>
-  <si>
-    <t>examen</t>
-  </si>
-  <si>
-    <t>cuarto</t>
-  </si>
-  <si>
-    <t>internado</t>
-  </si>
-  <si>
-    <t>mencion</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
@@ -122,9 +104,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Internado</t>
   </si>
   <si>
@@ -135,6 +114,24 @@
   </si>
   <si>
     <t>Correccion</t>
+  </si>
+  <si>
+    <t>Especialidades</t>
+  </si>
+  <si>
+    <t>Pediatría</t>
+  </si>
+  <si>
+    <t>Salud Mental</t>
+  </si>
+  <si>
+    <t>Salud Física</t>
+  </si>
+  <si>
+    <t>Geriatría</t>
+  </si>
+  <si>
+    <t>Intervención Comunitaria</t>
   </si>
 </sst>
 </file>
@@ -339,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -360,6 +357,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +663,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +678,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -687,7 +686,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -695,7 +694,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -731,7 +730,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -974,7 +973,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1132,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1150,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1162,7 +1161,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1173,7 +1172,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1184,7 +1183,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1195,7 +1194,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -1213,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" s="19"/>
     </row>
@@ -1236,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1247,10 +1246,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1258,10 +1257,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1400,403 +1399,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
+      <c r="A4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modelo1_db.xlsx
+++ b/Modelo1_db.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="T(k)" sheetId="1" r:id="rId1"/>
     <sheet name="D,S,H(p)" sheetId="2" r:id="rId2"/>
-    <sheet name="U(k,s)" sheetId="3" r:id="rId3"/>
+    <sheet name="U(k,j,s)" sheetId="3" r:id="rId3"/>
     <sheet name="C(p,k)" sheetId="4" r:id="rId4"/>
     <sheet name="Y,M(j)" sheetId="5" r:id="rId5"/>
     <sheet name="B(k,l,r)" sheetId="6" r:id="rId6"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>k</t>
   </si>
@@ -663,7 +663,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +730,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,20 +857,24 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -881,11 +885,12 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -896,11 +901,12 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -911,11 +917,12 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1132,7 +1139,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1280,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
